--- a/Jogos_do_Dia/2023-11-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.44</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
@@ -830,13 +830,13 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>3.06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.76</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.53</v>
@@ -851,13 +851,13 @@
         <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.37</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
@@ -935,7 +935,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,134 +947,134 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L4" t="n">
         <v>2.05</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.63</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8</v>
+        <v>1.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.99</v>
+        <v>1.25</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.09</v>
+        <v>2.84</v>
       </c>
       <c r="AE4" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,134 +1086,134 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="M5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.4</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.3</v>
-      </c>
       <c r="R5" t="n">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AE5" t="n">
         <v>2</v>
       </c>
-      <c r="W5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.2</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.79</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N6" t="n">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="O6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X6" t="n">
         <v>1.28</v>
       </c>
-      <c r="R6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.29</v>
-      </c>
       <c r="Y6" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.17</v>
+        <v>0.88</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.77</v>
+        <v>3.08</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.38</v>
+        <v>1.82</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.76</v>
+        <v>2.39</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.18</v>
+        <v>2.8</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.58</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="M7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P7" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="S7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC7" t="n">
         <v>1.5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AD7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AP7" t="n">
         <v>2.4</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>3.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1664,13 +1664,13 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
         <v>1.29</v>
@@ -1691,10 +1691,10 @@
         <v>4.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Guaireña</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.87</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="M10" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.78</v>
+        <v>2.45</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guaireña</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R11" t="n">
         <v>3.3</v>
       </c>
-      <c r="L11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.73</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>2</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.06</v>
+        <v>1.44</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.45</v>
+        <v>2.78</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="M12" t="n">
         <v>1.5</v>
@@ -2108,10 +2108,10 @@
         <v>2.62</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2359,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="M14" t="n">
         <v>1.22</v>
@@ -2459,6 +2459,284 @@
       </c>
       <c r="AQ14" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>35</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="M2" t="n">
         <v>1.44</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
         <v>1.91</v>
@@ -739,10 +739,10 @@
         <v>1.91</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AB2" t="n">
         <v>1.9</v>
@@ -830,13 +830,13 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.06</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="M3" t="n">
         <v>1.53</v>
@@ -857,10 +857,10 @@
         <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -935,7 +935,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,134 +947,134 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.75</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="R4" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>2.29</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="X4" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.75</v>
+        <v>0.88</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.84</v>
+        <v>3.08</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.75</v>
+        <v>2.39</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AI4" t="n">
         <v>4.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,134 +1086,134 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8</v>
-      </c>
       <c r="AG5" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.4</v>
+        <v>3.18</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AM5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AP5" t="n">
         <v>2.4</v>
       </c>
-      <c r="AN5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.7</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="S6" t="n">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.39</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AI6" t="n">
         <v>4.2</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.97</v>
+        <v>2.55</v>
       </c>
       <c r="M7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.4</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.28</v>
-      </c>
       <c r="R7" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.96</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="Y7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1.26</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AK7" t="n">
-        <v>3.18</v>
+        <v>3.4</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>3.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1664,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.53</v>
@@ -1691,10 +1691,10 @@
         <v>4.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guaireña</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R10" t="n">
         <v>3.3</v>
       </c>
-      <c r="L10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.06</v>
+        <v>1.44</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.45</v>
+        <v>2.78</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Guaireña</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>2.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.78</v>
+        <v>2.45</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.5</v>
@@ -2108,10 +2108,10 @@
         <v>2.62</v>
       </c>
       <c r="S12" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2359,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1.22</v>
@@ -2498,13 +2498,13 @@
         <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="K15" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="L15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15" t="n">
         <v>1.33</v>
@@ -2525,10 +2525,10 @@
         <v>3.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
         <v>2.88</v>
@@ -2637,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
@@ -2664,10 +2664,10 @@
         <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
         <v>1.7</v>
